--- a/biology/Botanique/Friuli_Aquileia/Friuli_Aquileia.xlsx
+++ b/biology/Botanique/Friuli_Aquileia/Friuli_Aquileia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Friuli Aquileia est un vignoble italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 6 août 1988. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés en province d'Udine dans les communes de Bagnaria Arsa, Cervignano del Friuli, Aquileia, Fiumicello, Villa Vicentina, Ruda, Campolongo Tapogliano, Aiello del Friuli, Visco et San Vito al Torre ainsi qu'en partie dans les communes de Santa Maria la Longa, Palmanova, Terzo d'Aquileia, Chiopris-Viscone, Trivignano Udinese et Gonars.
 Les vignobles voisins sont Lison Pramaggiore, Colli Orientali del Friuli, Collio Goriziano, Friuli Latisana, Friuli Annia, Friuli Isonzo et Friuli Grave
@@ -543,7 +557,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Merlot;
@@ -587,7 +603,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous l’appellation, les vins suivants sont autorisés :
 Friuli Aquileia Cabernet
